--- a/Data_ts/GoyalWelchZafirov2021.xlsx
+++ b/Data_ts/GoyalWelchZafirov2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\Research\PBR\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2100f564d45fdb98/PBR-ac/code-PBR/Data_ts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258128CB-F981-4CA0-89D2-10DCE176AD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{258128CB-F981-4CA0-89D2-10DCE176AD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1631CE8D-0FB9-491C-BDBB-C173EBE81D14}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="26370" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <sheet name="Table4" sheetId="4" r:id="rId4"/>
     <sheet name="Table5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="199">
   <si>
     <t>Table 2: Basic-Replication IS Sample Results</t>
   </si>
@@ -608,6 +619,24 @@
   </si>
   <si>
     <t>t_rep</t>
+  </si>
+  <si>
+    <t>OOS</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t># OP w/ OOS</t>
+  </si>
+  <si>
+    <t># Check</t>
   </si>
 </sst>
 </file>
@@ -816,26 +845,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -843,31 +865,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,6 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,57 +1394,57 @@
       <c r="C4" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="52" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="53"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1443,34 +1455,34 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>-0.43</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="22">
         <v>-3.28</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="24">
         <v>-0.44</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="1">
         <v>-3.3</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="31">
         <v>-0.54</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="32">
         <v>-0.38</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="28" t="s">
         <v>187</v>
       </c>
       <c r="M6" t="s">
@@ -1484,37 +1496,37 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>-0.09</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="23">
         <v>-3.01</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="24">
         <v>-0.03</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="1">
         <v>-0.94</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>0.03</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="1">
         <v>-0.19</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1523,37 +1535,37 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D8">
         <v>15.56</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="23">
         <v>3.3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>13.58</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="1">
         <v>3.55</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>17.88</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="1">
         <v>-1.37</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1562,37 +1574,37 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D9">
         <v>0.47</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="23">
         <v>2.86</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>0.12</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>0.13</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9">
         <v>0.08</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1603,37 +1615,37 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1.02</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="23">
         <v>2.11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="24">
         <v>1.07</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="1">
         <v>2.06</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>1.66</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="1">
         <v>-1.88</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1642,37 +1654,37 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>2.59</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="23">
         <v>2.84</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="24">
         <v>1.88</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="1">
         <v>2.84</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1683,37 +1695,37 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>-0.02</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="23">
         <v>-2.66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="24">
         <v>-0.02</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="1">
         <v>-1.28</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="24">
         <v>-0.04</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12">
         <v>0.02</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1722,37 +1734,37 @@
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>-0.1</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="23">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="24">
         <v>-0.1</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="1">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>-0.09</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13">
         <v>-0.11</v>
       </c>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1763,37 +1775,37 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D14">
         <v>-0.11</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="4">
         <v>-4.08</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>-0.09</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14">
         <v>-3.68</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>-0.13</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14">
         <v>-0.05</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1804,37 +1816,37 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D15">
         <v>-0.09</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="4">
         <v>-3.57</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>-0.1</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15">
         <v>-3.19</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>-0.08</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15">
         <v>-0.11</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1845,37 +1857,37 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="4">
         <v>3.33</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>0.06</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16">
         <v>2.79</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>0.03</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16">
         <v>0.11</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1883,37 +1895,37 @@
       <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>-0.05</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="4">
         <v>-2.42</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>-0.06</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17">
         <v>-2.86</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>-0.05</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17">
         <v>-0.11</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1924,37 +1936,37 @@
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="4">
         <v>3.04</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>0.48</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18">
         <v>2.59</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>0.53</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18">
         <v>0.46</v>
       </c>
-      <c r="L18" s="45" t="s">
+      <c r="L18" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1965,37 +1977,37 @@
       <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>-0.46</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="4">
         <v>-3.21</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>-0.31</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>-0.47</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19">
         <v>-0.2</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2006,37 +2018,37 @@
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>-0.13</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="4">
         <v>-3.1</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>-0.11</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20">
         <v>-2.58</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>-0.1</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20">
         <v>-0.11</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2047,37 +2059,37 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>4.54</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="4">
         <v>2.08</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>5.09</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21">
         <v>2.38</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>4.79</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21">
         <v>8.51</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2088,37 +2100,37 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="4">
         <v>2.85</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>0.16</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22">
         <v>3.3</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22">
         <v>0.51</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2129,73 +2141,73 @@
       <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D23">
         <v>0.32</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="4">
         <v>2.09</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>0.22</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23">
         <v>1.92</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23">
         <v>0.18</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M23" s="22"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D24">
         <v>-0.48</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="4">
         <v>-3.79</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24">
         <v>-3.54</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>-0.36</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24">
         <v>-0.26</v>
       </c>
-      <c r="L24" s="45" t="s">
+      <c r="L24" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2206,37 +2218,37 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D25">
         <v>0.2</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="4">
         <v>2.94</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <v>0.01</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25">
         <v>1.84</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>0.01</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25">
         <v>0.01</v>
       </c>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2247,37 +2259,37 @@
       <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D26">
         <v>-3.45</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="4">
         <v>-2.5499999999999998</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>-2.3199999999999998</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>-1.39</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26">
         <v>-2.81</v>
       </c>
-      <c r="L26" s="45" t="s">
+      <c r="L26" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2288,37 +2300,37 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D27">
         <v>2.1</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="4">
         <v>2.46</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="2">
         <v>2.12</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27">
         <v>2.19</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>2.1</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27">
         <v>2.12</v>
       </c>
-      <c r="L27" s="45" t="s">
+      <c r="L27" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M27" s="22"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2327,37 +2339,37 @@
       <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D28">
         <v>-14.61</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="4">
         <v>-4.88</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>-14.07</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28">
         <v>-4.07</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <v>-16.170000000000002</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28">
         <v>-10.24</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2365,37 +2377,37 @@
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D29">
         <v>-3.78</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="4">
         <v>-5.74</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="2">
         <v>-3.81</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29">
         <v>-5.17</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29">
         <v>-2.5499999999999998</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="L29" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2406,37 +2418,37 @@
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D30">
         <v>0.12</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="4">
         <v>2.12</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="2">
         <v>0.26</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30">
         <v>1.88</v>
       </c>
-      <c r="I30" s="42" t="s">
+      <c r="I30" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="2">
         <v>0.21</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30">
         <v>0.31</v>
       </c>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="M30" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2447,37 +2459,37 @@
       <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D31">
         <v>8.44</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="4">
         <v>3.65</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>4.74</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31">
         <v>2.64</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>5.05</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31">
         <v>-19.88</v>
       </c>
-      <c r="L31" s="44" t="s">
+      <c r="L31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="22"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2486,37 +2498,37 @@
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D32">
         <v>0.06</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="4">
         <v>2.66</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>0.05</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32">
         <v>2.57</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I32" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32">
         <v>0.04</v>
       </c>
-      <c r="L32" s="45" t="s">
+      <c r="L32" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2527,37 +2539,37 @@
       <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D33">
         <v>-0.5</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="4">
         <v>-2.5</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>-0.43</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33">
         <v>-2.15</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="2">
         <v>-0.47</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33">
         <v>-0.37</v>
       </c>
-      <c r="L33" s="45" t="s">
+      <c r="L33" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2568,37 +2580,37 @@
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D34">
         <v>-0.17</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="8">
         <v>-2.59</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="2">
         <v>-0.16</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34">
         <v>-3.98</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="2">
         <v>-0.09</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34">
         <v>-0.22</v>
       </c>
-      <c r="L34" s="44" t="s">
+      <c r="L34" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="M34" s="22"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -2606,44 +2618,44 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51" t="s">
+      <c r="E53" s="33"/>
+      <c r="F53" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51" t="s">
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J53" s="51"/>
+      <c r="J53" s="33"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2651,7 +2663,7 @@
       <c r="B55" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D55">
@@ -2660,19 +2672,19 @@
       <c r="E55">
         <v>0.35</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>0.83</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55">
         <v>0.1</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55">
         <v>-3.44</v>
       </c>
     </row>
@@ -2680,7 +2692,7 @@
       <c r="B56" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D56">
@@ -2689,19 +2701,19 @@
       <c r="E56">
         <v>0.12</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>1.03</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56">
         <v>-0.08</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56">
         <v>0.03</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56">
         <v>-8.8800000000000008</v>
       </c>
     </row>
@@ -2709,7 +2721,7 @@
       <c r="B57" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D57">
@@ -2718,17 +2730,17 @@
       <c r="E57">
         <v>0.96</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="2">
         <v>0.3</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
         <v>0.23</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="5">
+      <c r="H57" s="4"/>
+      <c r="I57">
         <v>0.23</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57">
         <v>0.11</v>
       </c>
     </row>
@@ -2736,7 +2748,7 @@
       <c r="B58" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D58">
@@ -2745,17 +2757,17 @@
       <c r="E58">
         <v>-0.62</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="2">
         <v>-0.08</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58">
         <v>-1.33</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="5">
+      <c r="H58" s="4"/>
+      <c r="I58">
         <v>0.15</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58">
         <v>-0.24</v>
       </c>
     </row>
@@ -2763,7 +2775,7 @@
       <c r="B59" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D59">
@@ -2772,17 +2784,17 @@
       <c r="E59">
         <v>-1.47</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="2">
         <v>-0.6</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59">
         <v>-0.25</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="5">
+      <c r="H59" s="4"/>
+      <c r="I59">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59">
         <v>-0.12</v>
       </c>
     </row>
@@ -2790,7 +2802,7 @@
       <c r="B60" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D60">
@@ -2799,17 +2811,17 @@
       <c r="E60">
         <v>2.66</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="2">
         <v>0.48</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60">
         <v>0.3</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="5">
+      <c r="H60" s="4"/>
+      <c r="I60">
         <v>1.04</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60">
         <v>-1.24</v>
       </c>
     </row>
@@ -2817,7 +2829,7 @@
       <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D61">
@@ -2826,17 +2838,17 @@
       <c r="E61">
         <v>-1.73</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="2">
         <v>-0.5</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61">
         <v>-0.22</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="5">
+      <c r="H61" s="4"/>
+      <c r="I61">
         <v>0.6</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61">
         <v>-0.48</v>
       </c>
     </row>
@@ -2844,7 +2856,7 @@
       <c r="B62" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D62">
@@ -2853,19 +2865,19 @@
       <c r="E62">
         <v>0.04</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="2">
         <v>0.18</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62">
         <v>-0.33</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62">
         <v>-0.56999999999999995</v>
       </c>
     </row>
@@ -2873,7 +2885,7 @@
       <c r="B63" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D63">
@@ -2882,19 +2894,19 @@
       <c r="E63">
         <v>0.21</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="2">
         <v>-0.08</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63">
         <v>0.8</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63">
         <v>-0.37</v>
       </c>
     </row>
@@ -2902,7 +2914,7 @@
       <c r="B64" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D64">
@@ -2911,17 +2923,17 @@
       <c r="E64">
         <v>3.44</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="2">
         <v>1.08</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64">
         <v>0.48</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="5">
+      <c r="H64" s="4"/>
+      <c r="I64">
         <v>3.79</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64">
         <v>-2.21</v>
       </c>
     </row>
@@ -2929,7 +2941,7 @@
       <c r="B65" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D65">
@@ -2938,19 +2950,19 @@
       <c r="E65">
         <v>0.4</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="2">
         <v>0.34</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65">
         <v>-0.23</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65">
         <v>0.1</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65">
         <v>-0.56999999999999995</v>
       </c>
     </row>
@@ -2958,7 +2970,7 @@
       <c r="B66" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D66">
@@ -2967,17 +2979,17 @@
       <c r="E66">
         <v>-0.32</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="2">
         <v>-0.02</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66">
         <v>-0.69</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="5">
+      <c r="H66" s="4"/>
+      <c r="I66">
         <v>0.03</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2985,7 +2997,7 @@
       <c r="B67" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D67">
@@ -2994,17 +3006,17 @@
       <c r="E67">
         <v>0.67</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="2">
         <v>0.18</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="5">
+      <c r="H67" s="4"/>
+      <c r="I67">
         <v>0.1</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67">
         <v>-1.24</v>
       </c>
     </row>
@@ -3012,7 +3024,7 @@
       <c r="B68" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D68">
@@ -3021,19 +3033,19 @@
       <c r="E68">
         <v>0.74</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="2">
         <v>0.39</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68">
         <v>-0.22</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68">
         <v>0.27</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68">
         <v>-1.39</v>
       </c>
     </row>
@@ -3041,7 +3053,7 @@
       <c r="B69" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D69">
@@ -3050,17 +3062,17 @@
       <c r="E69">
         <v>1.61</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="2">
         <v>0.33</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69">
         <v>0.22</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="5">
+      <c r="H69" s="4"/>
+      <c r="I69">
         <v>0.47</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69">
         <v>0.2</v>
       </c>
     </row>
@@ -3068,7 +3080,7 @@
       <c r="B70" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D70">
@@ -3077,17 +3089,17 @@
       <c r="E70">
         <v>0.84</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70">
         <v>0.44</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="5">
+      <c r="H70" s="4"/>
+      <c r="I70">
         <v>0.13</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70">
         <v>-0.17</v>
       </c>
     </row>
@@ -3095,7 +3107,7 @@
       <c r="B71" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D71">
@@ -3104,436 +3116,424 @@
       <c r="E71">
         <v>-1.28</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="2">
         <v>0.06</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71">
         <v>-0.39</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71">
         <v>0.41</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71">
         <v>0.74</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="5">
         <v>0.01</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="5">
         <v>0.06</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="6">
         <v>-0.31</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="5">
         <v>0.36</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="5">
         <v>0</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J72" s="5">
         <v>-1.07</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73">
         <v>0.2</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73">
         <v>0.84</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="2">
         <v>0.54</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I73" s="32">
+      <c r="I73" s="21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73">
         <v>-0.12</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74">
         <v>0.26</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74">
         <v>1.03</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="2">
         <v>0.74</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74">
         <v>0.15</v>
       </c>
-      <c r="I74" s="29">
+      <c r="I74" s="2">
         <v>0.22</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74">
         <v>-0.32</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75">
         <v>0.3</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75">
         <v>1.72</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="2">
         <v>0.97</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75">
         <v>0.04</v>
       </c>
-      <c r="I75" s="29">
+      <c r="I75" s="2">
         <v>0.31</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75">
         <v>-1.24</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76">
         <v>-0.1</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76">
         <v>-0.34</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="2">
         <v>-0.64</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76">
         <v>0.11</v>
       </c>
-      <c r="H76" s="30" t="s">
+      <c r="H76" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I76" s="29">
+      <c r="I76" s="2">
         <v>0.03</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76">
         <v>-1.19</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77">
         <v>-0.08</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77">
         <v>-0.18</v>
       </c>
-      <c r="F77" s="29">
+      <c r="F77" s="2">
         <v>0</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77">
         <v>-0.18</v>
       </c>
-      <c r="I77" s="29">
+      <c r="I77" s="2">
         <v>0.02</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77">
         <v>-0.32</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78">
         <v>0.31</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78">
         <v>0.95</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F78" s="2">
         <v>1.02</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78">
         <v>-0.02</v>
       </c>
-      <c r="H78" s="30" t="s">
+      <c r="H78" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I78" s="29">
+      <c r="I78" s="2">
         <v>0.33</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78">
         <v>-1.35</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="5" t="s">
+      <c r="B79" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79">
         <v>-0.36</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79">
         <v>-1.44</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="2">
         <v>-0.64</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79">
         <v>-0.09</v>
       </c>
-      <c r="I79" s="29">
+      <c r="I79" s="2">
         <v>0.44</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79">
         <v>-0.48</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="9">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="9">
         <v>-1.71</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="20">
         <v>-0.5</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="9">
         <v>-0.26</v>
       </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="31">
+      <c r="H80" s="9"/>
+      <c r="I80" s="20">
         <v>0.26</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="9">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81">
         <v>-0.22</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81">
         <v>-1.43</v>
       </c>
-      <c r="F81" s="29">
+      <c r="F81" s="2">
         <v>-0.77</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81">
         <v>-0.21</v>
       </c>
-      <c r="I81" s="29">
+      <c r="I81" s="2">
         <v>0.16</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81">
         <v>-0.63</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82">
         <v>0.24</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82">
         <v>1.53</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="2">
         <v>0.16</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82">
         <v>0.27</v>
       </c>
-      <c r="I82" s="29">
+      <c r="I82" s="2">
         <v>0.2</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82">
         <v>-0.94</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83">
         <v>0.18</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F83" s="2">
         <v>0.19</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83">
         <v>0.21</v>
       </c>
-      <c r="I83" s="29">
+      <c r="I83" s="2">
         <v>0.11</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83">
         <v>0.02</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84">
         <v>0.15</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="2">
         <v>0.02</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84">
         <v>0.24</v>
       </c>
-      <c r="I84" s="29">
+      <c r="I84" s="2">
         <v>0.02</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84">
         <v>-0.11</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85">
         <v>0.23</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85">
         <v>0.9</v>
       </c>
-      <c r="F85" s="29">
+      <c r="F85" s="2">
         <v>-0.02</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85">
         <v>0.39</v>
       </c>
-      <c r="H85" s="30" t="s">
+      <c r="H85" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I85" s="29">
+      <c r="I85" s="2">
         <v>0.18</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85">
         <v>-0.43</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
+      <c r="B86" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86">
         <v>-0.23</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86">
         <v>-1.01</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="2">
         <v>-0.15</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86">
         <v>-0.43</v>
       </c>
-      <c r="I86" s="29">
+      <c r="I86" s="2">
         <v>0.17</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
@@ -3541,44 +3541,44 @@
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D94" s="51" t="s">
+      <c r="D94" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51" t="s">
+      <c r="E94" s="33"/>
+      <c r="F94" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="51" t="s">
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J94" s="51"/>
+      <c r="J94" s="33"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3586,13 +3586,13 @@
       <c r="B96" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D96">
         <v>-1.68</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="4">
         <v>-3.57</v>
       </c>
       <c r="F96">
@@ -3601,7 +3601,7 @@
       <c r="G96">
         <v>-1.57</v>
       </c>
-      <c r="H96" s="7"/>
+      <c r="H96" s="4"/>
       <c r="I96">
         <v>4.3</v>
       </c>
@@ -3613,13 +3613,13 @@
       <c r="B97" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D97">
         <v>0.52</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="4">
         <v>0.87</v>
       </c>
       <c r="F97">
@@ -3628,7 +3628,7 @@
       <c r="G97">
         <v>-1.8</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="H97" s="3" t="s">
         <v>137</v>
       </c>
       <c r="I97">
@@ -3642,13 +3642,13 @@
       <c r="B98" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D98">
         <v>0.67</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="4">
         <v>1.67</v>
       </c>
       <c r="F98">
@@ -3657,7 +3657,7 @@
       <c r="G98">
         <v>-2.86</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="3" t="s">
         <v>137</v>
       </c>
       <c r="I98">
@@ -3671,13 +3671,13 @@
       <c r="B99" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D99">
         <v>-1.73</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="4">
         <v>-1.65</v>
       </c>
       <c r="F99">
@@ -3686,7 +3686,7 @@
       <c r="G99">
         <v>-1.24</v>
       </c>
-      <c r="H99" s="7"/>
+      <c r="H99" s="4"/>
       <c r="I99">
         <v>4.5199999999999996</v>
       </c>
@@ -3698,13 +3698,13 @@
       <c r="B100" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="4">
         <v>1.69</v>
       </c>
       <c r="F100">
@@ -3713,7 +3713,7 @@
       <c r="G100">
         <v>1.74</v>
       </c>
-      <c r="H100" s="7"/>
+      <c r="H100" s="4"/>
       <c r="I100">
         <v>5.66</v>
       </c>
@@ -3722,79 +3722,79 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="5">
         <v>1</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="8">
         <v>1.37</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="5">
         <v>0.21</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="5">
         <v>1.96</v>
       </c>
-      <c r="H101" s="11"/>
-      <c r="I101" s="8">
+      <c r="H101" s="8"/>
+      <c r="I101" s="5">
         <v>0.9</v>
       </c>
-      <c r="J101" s="8">
+      <c r="J101" s="5">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="9">
         <v>-1.56</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="10">
         <v>-3.42</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="9">
         <v>-2.17</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="9">
         <v>-0.93</v>
       </c>
-      <c r="H102" s="13"/>
-      <c r="I102" s="14">
+      <c r="H102" s="10"/>
+      <c r="I102" s="9">
         <v>3.9</v>
       </c>
-      <c r="J102" s="14">
+      <c r="J102" s="9">
         <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="5" t="s">
+      <c r="B103" t="s">
         <v>141</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103">
         <v>0.34</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="4">
         <v>0.51</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103">
         <v>2.64</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103">
         <v>-0.54</v>
       </c>
-      <c r="H103" s="6" t="s">
+      <c r="H103" s="3" t="s">
         <v>137</v>
       </c>
       <c r="I103">
@@ -3810,44 +3810,44 @@
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D120" s="51" t="s">
+      <c r="D120" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51" t="s">
+      <c r="E120" s="33"/>
+      <c r="F120" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51" t="s">
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J120" s="51"/>
+      <c r="J120" s="33"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8" t="s">
+      <c r="C121" s="5"/>
+      <c r="D121" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H121" s="18" t="s">
+      <c r="H121" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I121" s="15" t="s">
+      <c r="I121" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J121" s="15" t="s">
+      <c r="J121" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3855,13 +3855,13 @@
       <c r="B122" t="s">
         <v>144</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D122">
         <v>0.65</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="4">
         <v>0.28000000000000003</v>
       </c>
       <c r="F122">
@@ -3870,7 +3870,7 @@
       <c r="G122">
         <v>7.85</v>
       </c>
-      <c r="H122" s="6" t="s">
+      <c r="H122" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I122">
@@ -3881,85 +3881,85 @@
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D123" s="14">
+      <c r="D123" s="9">
         <v>5.15</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="10">
         <v>2.73</v>
       </c>
-      <c r="F123" s="14">
+      <c r="F123" s="9">
         <v>2.69</v>
       </c>
-      <c r="G123" s="14">
+      <c r="G123" s="9">
         <v>8.5399999999999991</v>
       </c>
-      <c r="H123" s="21" t="s">
+      <c r="H123" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I123" s="14">
+      <c r="I123" s="9">
         <v>9.61</v>
       </c>
-      <c r="J123" s="14">
+      <c r="J123" s="9">
         <v>12.49</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D124" s="14">
+      <c r="D124" s="9">
         <v>-5.35</v>
       </c>
-      <c r="E124" s="13">
+      <c r="E124" s="10">
         <v>-3.08</v>
       </c>
-      <c r="F124" s="14">
+      <c r="F124" s="9">
         <v>-6.15</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G124" s="9">
         <v>-4.58</v>
       </c>
-      <c r="H124" s="13"/>
-      <c r="I124" s="14">
+      <c r="H124" s="10"/>
+      <c r="I124" s="9">
         <v>10.53</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J124" s="9">
         <v>5.16</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D125" s="14">
+      <c r="D125" s="9">
         <v>-5.64</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="10">
         <v>-3.4</v>
       </c>
-      <c r="F125" s="14">
+      <c r="F125" s="9">
         <v>-6.02</v>
       </c>
-      <c r="G125" s="14">
+      <c r="G125" s="9">
         <v>-4.4800000000000004</v>
       </c>
-      <c r="H125" s="13"/>
-      <c r="I125" s="14">
+      <c r="H125" s="10"/>
+      <c r="I125" s="9">
         <v>11.91</v>
       </c>
-      <c r="J125" s="14">
+      <c r="J125" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -3967,13 +3967,13 @@
       <c r="B126" t="s">
         <v>147</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D126">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="4">
         <v>-0.1</v>
       </c>
       <c r="F126">
@@ -3982,7 +3982,7 @@
       <c r="G126">
         <v>-10.26</v>
       </c>
-      <c r="H126" s="6" t="s">
+      <c r="H126" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I126">
@@ -3993,60 +3993,60 @@
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D127" s="15">
+      <c r="D127" s="5">
         <v>1.94</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="8">
         <v>0.99</v>
       </c>
-      <c r="F127" s="15">
+      <c r="F127" s="5">
         <v>2.81</v>
       </c>
-      <c r="G127" s="15">
+      <c r="G127" s="5">
         <v>-1.48</v>
       </c>
-      <c r="H127" s="10" t="s">
+      <c r="H127" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I127" s="15">
+      <c r="I127" s="5">
         <v>1</v>
       </c>
-      <c r="J127" s="15">
+      <c r="J127" s="5">
         <v>0.59</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="12">
         <v>-5.48</v>
       </c>
-      <c r="E128" s="16">
+      <c r="E128" s="11">
         <v>-2.67</v>
       </c>
-      <c r="F128" s="19">
+      <c r="F128" s="12">
         <v>-8.1</v>
       </c>
-      <c r="G128" s="19">
+      <c r="G128" s="12">
         <v>-0.15</v>
       </c>
-      <c r="H128" s="20" t="s">
+      <c r="H128" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I128" s="19">
+      <c r="I128" s="12">
         <v>7.96</v>
       </c>
-      <c r="J128" s="19">
+      <c r="J128" s="12">
         <v>-0.32</v>
       </c>
     </row>
@@ -4149,1059 +4149,1142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7F0D53-FF5D-4D7C-A608-5D825C9DDB1A}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L1" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>-0.43</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="22">
         <v>-3.28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="24">
         <v>-0.44</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="1">
         <v>-3.3</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="31">
         <v>-0.54</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="32">
         <v>-0.38</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>-0.09</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="23">
         <v>-3.01</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="24">
         <v>-0.03</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="1">
         <v>-0.94</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>0.03</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="1">
         <v>-0.19</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C4">
         <v>15.56</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="23">
         <v>3.3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>13.58</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="1">
         <v>3.55</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>17.88</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="1">
         <v>-1.37</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C5">
         <v>0.47</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="23">
         <v>2.86</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>0.12</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>0.13</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5">
         <v>0.08</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>1.02</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="23">
         <v>2.11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="24">
         <v>1.07</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="1">
         <v>2.06</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>1.66</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="1">
         <v>-1.88</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>197</v>
+      </c>
+      <c r="S6">
+        <f>29-COUNTBLANK(L2:L30)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>2.59</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="23">
         <v>2.84</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="24">
         <v>1.88</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="1">
         <v>2.84</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>195</v>
+      </c>
+      <c r="R7" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7">
+        <f>COUNTIF(L2:L30, "check")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>-0.02</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="23">
         <v>-2.66</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="24">
         <v>-0.02</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="1">
         <v>-1.28</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="24">
         <v>-0.04</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8">
         <v>0.02</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>-0.1</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="23">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="24">
         <v>-0.1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="1">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>-0.09</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9">
         <v>-0.11</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C10">
         <v>-0.11</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="4">
         <v>-4.08</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>-0.09</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10">
         <v>-3.68</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>-0.13</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10">
         <v>-0.05</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="27" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C11">
         <v>-0.09</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="4">
         <v>-3.57</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>-0.1</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11">
         <v>-3.19</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>-0.08</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11">
         <v>-0.11</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="4">
         <v>3.33</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>0.06</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12">
         <v>2.79</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>0.03</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12">
         <v>0.11</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="27" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>-0.05</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="4">
         <v>-2.42</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>-0.06</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13">
         <v>-2.86</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>-0.05</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13">
         <v>-0.11</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="4">
         <v>3.04</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>0.48</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14">
         <v>2.59</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>0.53</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14">
         <v>0.46</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>-0.46</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="4">
         <v>-3.21</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>-0.31</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>-0.47</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15">
         <v>-0.2</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>-0.13</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="4">
         <v>-3.1</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>-0.11</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16">
         <v>-2.58</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>-0.1</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16">
         <v>-0.11</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>4.54</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="4">
         <v>2.08</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>5.09</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17">
         <v>2.38</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>4.79</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17">
         <v>8.51</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="4">
         <v>2.85</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>0.16</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18">
         <v>3.3</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18">
         <v>0.51</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="27" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C19">
         <v>0.32</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="4">
         <v>2.09</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>0.22</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19">
         <v>1.92</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19">
         <v>0.18</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C20">
         <v>-0.48</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="4">
         <v>-3.79</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20">
         <v>-3.54</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>-0.36</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20">
         <v>-0.26</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C21">
         <v>0.2</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="4">
         <v>2.94</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>0.01</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21">
         <v>1.84</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>0.01</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21">
         <v>0.01</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C22">
         <v>-3.45</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="4">
         <v>-2.5499999999999998</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>-2.3199999999999998</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>-1.39</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22">
         <v>-2.81</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C23">
         <v>2.1</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="4">
         <v>2.46</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>2.12</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23">
         <v>2.19</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>2.1</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23">
         <v>2.12</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C24">
         <v>-14.61</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="4">
         <v>-4.88</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>-14.07</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24">
         <v>-4.07</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>-16.170000000000002</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24">
         <v>-10.24</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C25">
         <v>-3.78</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="4">
         <v>-5.74</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>-3.81</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25">
         <v>-5.17</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25">
         <v>-2.5499999999999998</v>
       </c>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C26">
         <v>0.12</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="4">
         <v>2.12</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>0.26</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26">
         <v>1.88</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <v>0.21</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26">
         <v>0.31</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C27">
         <v>8.44</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="4">
         <v>3.65</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>4.74</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27">
         <v>2.64</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>5.05</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27">
         <v>-19.88</v>
       </c>
-      <c r="K27" s="44" t="s">
+      <c r="K27" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C28">
         <v>0.06</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="4">
         <v>2.66</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>0.05</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28">
         <v>2.57</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28">
         <v>0.04</v>
       </c>
-      <c r="K28" s="45" t="s">
+      <c r="K28" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C29">
         <v>-0.5</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="4">
         <v>-2.5</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>-0.43</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29">
         <v>-2.15</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="H29" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>-0.47</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29">
         <v>-0.37</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C30">
         <v>-0.17</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="8">
         <v>-2.59</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>-0.16</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30">
         <v>-3.98</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="H30" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>-0.09</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30">
         <v>-0.22</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="K30" s="27" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5245,44 +5328,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="51"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5290,7 +5373,7 @@
       <c r="A3" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C3">
@@ -5299,19 +5382,19 @@
       <c r="D3">
         <v>0.35</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0.83</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>-3.44</v>
       </c>
     </row>
@@ -5319,7 +5402,7 @@
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C4">
@@ -5328,19 +5411,19 @@
       <c r="D4">
         <v>0.12</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1.03</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>-0.08</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>0.03</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>-8.8800000000000008</v>
       </c>
     </row>
@@ -5348,7 +5431,7 @@
       <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C5">
@@ -5357,17 +5440,17 @@
       <c r="D5">
         <v>0.96</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0.3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>0.23</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5">
         <v>0.23</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>0.11</v>
       </c>
     </row>
@@ -5375,7 +5458,7 @@
       <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C6">
@@ -5384,17 +5467,17 @@
       <c r="D6">
         <v>-0.62</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>-0.08</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>-1.33</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5">
+      <c r="G6" s="4"/>
+      <c r="H6">
         <v>0.15</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>-0.24</v>
       </c>
     </row>
@@ -5402,7 +5485,7 @@
       <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C7">
@@ -5411,17 +5494,17 @@
       <c r="D7">
         <v>-1.47</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>-0.6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>-0.25</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5">
+      <c r="G7" s="4"/>
+      <c r="H7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>-0.12</v>
       </c>
     </row>
@@ -5429,7 +5512,7 @@
       <c r="A8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C8">
@@ -5438,17 +5521,17 @@
       <c r="D8">
         <v>2.66</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>0.48</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>0.3</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5">
+      <c r="G8" s="4"/>
+      <c r="H8">
         <v>1.04</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>-1.24</v>
       </c>
     </row>
@@ -5456,7 +5539,7 @@
       <c r="A9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C9">
@@ -5465,17 +5548,17 @@
       <c r="D9">
         <v>-1.73</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>-0.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>-0.22</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5">
+      <c r="G9" s="4"/>
+      <c r="H9">
         <v>0.6</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>-0.48</v>
       </c>
     </row>
@@ -5483,7 +5566,7 @@
       <c r="A10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C10">
@@ -5492,19 +5575,19 @@
       <c r="D10">
         <v>0.04</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>0.18</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>-0.33</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>-0.56999999999999995</v>
       </c>
     </row>
@@ -5512,7 +5595,7 @@
       <c r="A11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C11">
@@ -5521,19 +5604,19 @@
       <c r="D11">
         <v>0.21</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>-0.08</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>0.8</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>-0.37</v>
       </c>
     </row>
@@ -5541,7 +5624,7 @@
       <c r="A12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C12">
@@ -5550,17 +5633,17 @@
       <c r="D12">
         <v>3.44</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>1.08</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>0.48</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5">
+      <c r="G12" s="4"/>
+      <c r="H12">
         <v>3.79</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <v>-2.21</v>
       </c>
     </row>
@@ -5568,7 +5651,7 @@
       <c r="A13" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C13">
@@ -5577,19 +5660,19 @@
       <c r="D13">
         <v>0.4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>0.34</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>-0.23</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>-0.56999999999999995</v>
       </c>
     </row>
@@ -5597,7 +5680,7 @@
       <c r="A14" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C14">
@@ -5606,17 +5689,17 @@
       <c r="D14">
         <v>-0.32</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>-0.02</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>-0.69</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5">
+      <c r="G14" s="4"/>
+      <c r="H14">
         <v>0.03</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5624,7 +5707,7 @@
       <c r="A15" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C15">
@@ -5633,17 +5716,17 @@
       <c r="D15">
         <v>0.67</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>0.18</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5">
+      <c r="G15" s="4"/>
+      <c r="H15">
         <v>0.1</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>-1.24</v>
       </c>
     </row>
@@ -5651,7 +5734,7 @@
       <c r="A16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C16">
@@ -5660,19 +5743,19 @@
       <c r="D16">
         <v>0.74</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>0.39</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>-0.22</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>0.27</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <v>-1.39</v>
       </c>
     </row>
@@ -5680,7 +5763,7 @@
       <c r="A17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C17">
@@ -5689,17 +5772,17 @@
       <c r="D17">
         <v>1.61</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>0.33</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>0.22</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5">
+      <c r="G17" s="4"/>
+      <c r="H17">
         <v>0.47</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17">
         <v>0.2</v>
       </c>
     </row>
@@ -5707,7 +5790,7 @@
       <c r="A18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C18">
@@ -5716,17 +5799,17 @@
       <c r="D18">
         <v>0.84</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>0.44</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5">
+      <c r="G18" s="4"/>
+      <c r="H18">
         <v>0.13</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18">
         <v>-0.17</v>
       </c>
     </row>
@@ -5734,7 +5817,7 @@
       <c r="A19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C19">
@@ -5743,422 +5826,422 @@
       <c r="D19">
         <v>-1.28</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>0.06</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>-0.39</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <v>0.41</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19">
         <v>0.74</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>0.01</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>0.06</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>-0.31</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="5">
         <v>0.36</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="5">
         <v>-1.07</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>0.2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>0.84</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="2">
         <v>0.54</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21">
         <v>-0.12</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>0.26</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>1.03</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="2">
         <v>0.74</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>0.15</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="2">
         <v>0.22</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22">
         <v>-0.32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>0.3</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>1.72</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="2">
         <v>0.97</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>0.04</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="2">
         <v>0.31</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23">
         <v>-1.24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>-0.1</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>-0.34</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="2">
         <v>-0.64</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>0.11</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="2">
         <v>0.03</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24">
         <v>-1.19</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>-0.08</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>-0.18</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>-0.18</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="2">
         <v>0.02</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25">
         <v>-0.32</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>0.31</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>0.95</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="2">
         <v>1.02</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>-0.02</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="2">
         <v>0.33</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26">
         <v>-1.35</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>-0.36</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>-1.44</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="2">
         <v>-0.64</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>-0.09</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="2">
         <v>0.44</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27">
         <v>-0.48</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="9">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="9">
         <v>-1.71</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="20">
         <v>-0.5</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="9">
         <v>-0.26</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="31">
+      <c r="G28" s="9"/>
+      <c r="H28" s="20">
         <v>0.26</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>-0.22</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>-1.43</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="2">
         <v>-0.77</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>-0.21</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="2">
         <v>0.16</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29">
         <v>-0.63</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>0.24</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30">
         <v>1.53</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="2">
         <v>0.16</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30">
         <v>0.27</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="2">
         <v>0.2</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30">
         <v>-0.94</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>0.18</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="2">
         <v>0.19</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>0.21</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="2">
         <v>0.11</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31">
         <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32">
         <v>0.15</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="2">
         <v>0.02</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>0.24</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="2">
         <v>0.02</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32">
         <v>-0.11</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>0.23</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <v>0.9</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="2">
         <v>-0.02</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>0.39</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="2">
         <v>0.18</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33">
         <v>-0.43</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>-0.23</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34">
         <v>-1.01</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="2">
         <v>-0.15</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>-0.43</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="2">
         <v>0.17</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34">
         <v>0.11</v>
       </c>
     </row>
@@ -6199,44 +6282,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="51"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6244,13 +6327,13 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C3">
         <v>-1.68</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>-3.57</v>
       </c>
       <c r="E3">
@@ -6259,7 +6342,7 @@
       <c r="F3">
         <v>-1.57</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="4"/>
       <c r="H3">
         <v>4.3</v>
       </c>
@@ -6271,13 +6354,13 @@
       <c r="A4" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C4">
         <v>0.52</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>0.87</v>
       </c>
       <c r="E4">
@@ -6286,7 +6369,7 @@
       <c r="F4">
         <v>-1.8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>137</v>
       </c>
       <c r="H4">
@@ -6300,13 +6383,13 @@
       <c r="A5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C5">
         <v>0.67</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>1.67</v>
       </c>
       <c r="E5">
@@ -6315,7 +6398,7 @@
       <c r="F5">
         <v>-2.86</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>137</v>
       </c>
       <c r="H5">
@@ -6329,13 +6412,13 @@
       <c r="A6" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C6">
         <v>-1.73</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>-1.65</v>
       </c>
       <c r="E6">
@@ -6344,7 +6427,7 @@
       <c r="F6">
         <v>-1.24</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="4"/>
       <c r="H6">
         <v>4.5199999999999996</v>
       </c>
@@ -6356,13 +6439,13 @@
       <c r="A7" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>1.69</v>
       </c>
       <c r="E7">
@@ -6371,7 +6454,7 @@
       <c r="F7">
         <v>1.74</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="4"/>
       <c r="H7">
         <v>5.66</v>
       </c>
@@ -6380,79 +6463,79 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>1.37</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>0.21</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>1.96</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="5">
         <v>0.9</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="5">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>-1.56</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>-3.42</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>-2.17</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <v>-0.93</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14">
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
         <v>3.9</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="9">
         <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>0.34</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>0.51</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>2.64</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>-0.54</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>137</v>
       </c>
       <c r="H10">
@@ -6499,44 +6582,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="51"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6544,13 +6627,13 @@
       <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C3">
         <v>0.65</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>0.28000000000000003</v>
       </c>
       <c r="E3">
@@ -6559,7 +6642,7 @@
       <c r="F3">
         <v>7.85</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H3">
@@ -6570,85 +6653,85 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>5.15</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>2.73</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>2.69</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="9">
         <v>8.5399999999999991</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <v>9.61</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="9">
         <v>12.49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>-5.35</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>-3.08</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <v>-6.15</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="9">
         <v>-4.58</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14">
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
         <v>10.53</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="9">
         <v>5.16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>-5.64</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>-3.4</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>-6.02</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>-4.4800000000000004</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14">
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
         <v>11.91</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -6656,13 +6739,13 @@
       <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C7">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>-0.1</v>
       </c>
       <c r="E7">
@@ -6671,7 +6754,7 @@
       <c r="F7">
         <v>-10.26</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H7">
@@ -6682,60 +6765,60 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="5">
         <v>1.94</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="8">
         <v>0.99</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="5">
         <v>2.81</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="5">
         <v>-1.48</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="5">
         <v>0.59</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <v>-5.48</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>-2.67</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="12">
         <v>-8.1</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="12">
         <v>-0.15</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="12">
         <v>7.96</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="12">
         <v>-0.32</v>
       </c>
     </row>
